--- a/experiment_book.xlsx
+++ b/experiment_book.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{E23584AE-6C5D-46B0-B141-18C7AA0D1A24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6E548-6F61-4035-A53F-DD3805D560C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9593B42-B49D-45FC-B424-9DD80890DA76}"/>
+    <workbookView xWindow="195" yWindow="0" windowWidth="20355" windowHeight="15555" activeTab="1" xr2:uid="{E9593B42-B49D-45FC-B424-9DD80890DA76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tuning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
   <si>
     <t>MODEL</t>
   </si>
@@ -57,13 +58,73 @@
     <t>FCNN</t>
   </si>
   <si>
-    <t>CNN_BILSTM + skip connection</t>
-  </si>
-  <si>
     <t>RESNET + SE</t>
   </si>
   <si>
     <t>RESNET</t>
+  </si>
+  <si>
+    <t>RESNET + SE + Bilstm</t>
+  </si>
+  <si>
+    <t>LTRCNN</t>
+  </si>
+  <si>
+    <t>LTRCNN+Regularization</t>
+  </si>
+  <si>
+    <t>senet_bilstm_1_2</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>Learning rate</t>
+  </si>
+  <si>
+    <t>EarlyStop Patience</t>
+  </si>
+  <si>
+    <t>Dropout rate</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SE layers</t>
+  </si>
+  <si>
+    <t>Bilstm layers</t>
+  </si>
+  <si>
+    <t>Dense layers</t>
+  </si>
+  <si>
+    <t>SE unit (1 layer)</t>
+  </si>
+  <si>
+    <t>Bilstm unit (2 layer)</t>
+  </si>
+  <si>
+    <t>Reduction ratio</t>
+  </si>
+  <si>
+    <t>First CNN kernel</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>elu</t>
+  </si>
+  <si>
+    <t>tanh</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
   </si>
 </sst>
 </file>
@@ -87,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -110,13 +171,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -437,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E300B0-9013-4745-A309-FE1938C7EA18}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,21 +649,21 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,34 +677,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="2">
+        <v>0.37225183844566301</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.29850671124753497</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.36840713024139399</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.305826960143324</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C5" s="4">
+        <v>0.28828647732734602</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.56070978128251303</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.293907821178436</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.53821957947395904</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="4">
+        <v>0.220946490764617</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.72772698437415895</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.29880747199058499</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.50114608893165702</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.28077796101570102</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.58288170734008404</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.30229100584983798</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.51614125024070201</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.15335753560066201</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.86928585227534405</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.31011894345283503</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.475036771850044</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.24135774374008101</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.68152904048874896</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.28412801027297901</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.55585999910043205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.277654469013214</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.58980938567595498</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.29758003354072499</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.52717009194267295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="C11" s="6">
+        <v>0.25184816122054998</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.65439399680811705</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.28312191367149298</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.56132474122896303</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -519,4 +824,896 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDA7E59-35AD-4638-A525-B1703937425A}">
+  <dimension ref="B2:F113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>128</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>256</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="17"/>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="8">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="9">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>10</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="17"/>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="9">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="9">
+        <v>3</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="9">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>5</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="17"/>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="9">
+        <v>1</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="10">
+        <v>2</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="17"/>
+      <c r="C71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="8">
+        <v>32</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="9">
+        <v>64</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="10">
+        <v>128</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="16"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="17"/>
+      <c r="C79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="8">
+        <v>64</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="9">
+        <v>128</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="9">
+        <v>256</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="10">
+        <v>1024</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="17"/>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="8">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="9">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="9">
+        <v>4</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="9">
+        <v>8</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="9">
+        <v>16</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="10">
+        <v>32</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="17"/>
+      <c r="C99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="8">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="9">
+        <v>3</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="9">
+        <v>5</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="9">
+        <v>7</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="10">
+        <v>9</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="16"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="17"/>
+      <c r="C109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>